--- a/data/Estación Central.xlsx
+++ b/data/Estación Central.xlsx
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">

--- a/data/Estación Central.xlsx
+++ b/data/Estación Central.xlsx
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">

--- a/data/Estación Central.xlsx
+++ b/data/Estación Central.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">

--- a/data/Estación Central.xlsx
+++ b/data/Estación Central.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Estación Central.xlsx
+++ b/data/Estación Central.xlsx
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista del Sol S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">

--- a/data/Estación Central.xlsx
+++ b/data/Estación Central.xlsx
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sociedad Concesionaria Autopista San Antonio-Stgo S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">

--- a/data/Estación Central.xlsx
+++ b/data/Estación Central.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Estación Central.xlsx
+++ b/data/Estación Central.xlsx
@@ -7351,7 +7351,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Inmobiliaria Rentas Oriente S.A.</t>
+          <t>Inmobiliaria Rentas Oriente SpA.</t>
         </is>
       </c>
       <c r="F146" t="n">

--- a/data/Estación Central.xlsx
+++ b/data/Estación Central.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Estación Central.xlsx
+++ b/data/Estación Central.xlsx
@@ -6055,7 +6055,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">

--- a/data/Estación Central.xlsx
+++ b/data/Estación Central.xlsx
@@ -7783,7 +7783,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">

--- a/data/Estación Central.xlsx
+++ b/data/Estación Central.xlsx
@@ -1172,7 +1172,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">

--- a/data/Estación Central.xlsx
+++ b/data/Estación Central.xlsx
@@ -6055,7 +6055,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F119" t="n">
